--- a/biology/Botanique/Mexiquillo/Mexiquillo.xlsx
+++ b/biology/Botanique/Mexiquillo/Mexiquillo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mexiquillo est un parc naturel situé à l'ouest de l'État de Durango, au Mexique, près du village de La Ciudad dans la municipalité de Pueblo nuevo, dans la chaine de montagne de la Sierra Madre occidentale. C'est le paysage naturel le plus visité de l'état.
 Le parc a une extension de 13475 hectares, desquelles 152,75 hectares sont une réserve écologique de bois vierges. Le parc contient des cascades, des ravins, des tunnels ferroviaires désaffectés, de nombreuses formations rocheuses et une forêt dense de conifères  avec des espèces endémiques de la région comme le Pinus durangensis et le Pinus engelmannii.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant le gouvernement du président Adolfo López Mateos, la ligne de chemin de fer Durango - Pacifique a commencé à être construite, une idée similaire à l'actuelle ligne Chihuahua – Pacifique. Le village La Ciudad a été créée dans les années 1960 et peuplée de travailleurs non permanent pour le chemin de fer et  les nombreux sous-traitants des alentours. Ils ont bâti les terre-pleins, tunnels et chemins pour poser les voies ferrées. Mais, un autre projet similaire, la route Durango - Mazatlán (Route fédérale 40) l'a supplanté car il était plus fiable et moins coûteux.
 Ainsi, vers la fin du gouvernement du président López Mateos le projet a été annulé.
@@ -546,7 +560,9 @@
           <t>Attraits Naturels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Formations rocheuses : Dans les plaines du parc, il existe de nombreuses formations rocheuses de7 à 8 mètres de hauteur. Ces formations sont constituées de roches ignées extrusives, et dans une moindre mesure, de rhyolite ; il y a aussi quelques formations rocheuses basaltiques et plutoniques. Cette zone du parc est connue par les habitants sous le nom de « Jardin des pierres » (es: Jardin de piedras) faisant allusion à la disposition unique des rochers à travers les clairières de la forêt.
@@ -580,7 +596,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mexiquillo se trouve à proximité du village La Ciudad, situé à 135 kilomètres à l'Ouest de la Durango, la capital de l'État de Durango au nord ouest du Mexique.
 Le parc est desservi par la route Durango - Mazatlán (Route fédérale 40).
@@ -613,7 +631,9 @@
           <t>Curiosités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Plusieurs films ont été tournés dans le parc :
 L'Homme des cavernes, avec Ringo Starr en rôle principal.
@@ -648,7 +668,9 @@
           <t>Liens</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Page du parc naturel Mexiquillo
 Voyage en moto à Mexiquillo
